--- a/pilot-study/report/participation/without-participation/NonParametricAnalysis.xlsx
+++ b/pilot-study/report/participation/without-participation/NonParametricAnalysis.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="46">
   <si>
-    <t>Summary of Kruskal-Wallis rank sum test for Pct of Students Without Participation</t>
+    <t>Summary of Kruskal-Wallis rank sum test for Pct Without Participation</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -59,7 +59,7 @@
     <t>non-gamified - ont-gamified</t>
   </si>
   <si>
-    <t>Summary of Wilcoxon Analysis for Pct of Students Without Participation</t>
+    <t>Summary of Wilcoxon Analysis for Pct Without Participation</t>
   </si>
   <si>
     <t>Wilcoxon test results for Type - Alternative hypothesis: greater</t>
@@ -98,7 +98,7 @@
     <t>large</t>
   </si>
   <si>
-    <t>Wilcoxon Analysis for Pct of Students Without Participation in Type between non-gamified:ont-gamified</t>
+    <t>Wilcoxon Analysis for Pct Without Participation in Type between non-gamified:ont-gamified</t>
   </si>
   <si>
     <t>Wilcoxon test results</t>
@@ -140,10 +140,10 @@
     <t>GroupD</t>
   </si>
   <si>
+    <t>Grupo Hélio</t>
+  </si>
+  <si>
     <t>Grupo Hades</t>
-  </si>
-  <si>
-    <t>Grupo Hélio</t>
   </si>
   <si>
     <t>Grupo Morfeu</t>
@@ -2375,7 +2375,7 @@
         <v>45</v>
       </c>
       <c r="E60" t="n" s="250">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="61">
@@ -2392,7 +2392,7 @@
         <v>45</v>
       </c>
       <c r="E61" t="n" s="250">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62">
@@ -2533,7 +2533,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="n" s="261">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
@@ -2550,7 +2550,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="n" s="261">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
